--- a/data/pca/factorExposure/factorExposure_2019-01-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1032359181637967</v>
+        <v>0.06751577827590728</v>
       </c>
       <c r="C2">
-        <v>-0.004087614972501315</v>
+        <v>0.03685119379839874</v>
       </c>
       <c r="D2">
-        <v>-0.07843852292673062</v>
+        <v>0.01862970210986199</v>
       </c>
       <c r="E2">
-        <v>0.01346373164562694</v>
+        <v>-0.0388037455396265</v>
       </c>
       <c r="F2">
-        <v>-0.1360595285855016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1373065384350949</v>
+      </c>
+      <c r="G2">
+        <v>-0.04926429808945879</v>
+      </c>
+      <c r="H2">
+        <v>0.05874021871237537</v>
+      </c>
+      <c r="I2">
+        <v>-0.111043323299001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2177785334580175</v>
+        <v>0.1574879759894664</v>
       </c>
       <c r="C3">
-        <v>-0.1622722786449042</v>
+        <v>0.113513364767327</v>
       </c>
       <c r="D3">
-        <v>-0.05957071197251142</v>
+        <v>-0.003645125952744271</v>
       </c>
       <c r="E3">
-        <v>-0.007633483343460648</v>
+        <v>0.0216630322988166</v>
       </c>
       <c r="F3">
-        <v>-0.3628109164758258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3967868867205581</v>
+      </c>
+      <c r="G3">
+        <v>-0.2470820702996698</v>
+      </c>
+      <c r="H3">
+        <v>0.1088274267425179</v>
+      </c>
+      <c r="I3">
+        <v>-0.3652373527858013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09446361400366081</v>
+        <v>0.07131156447252349</v>
       </c>
       <c r="C4">
-        <v>-0.03996895564798254</v>
+        <v>0.05224472448287262</v>
       </c>
       <c r="D4">
-        <v>-0.05351366526472567</v>
+        <v>-0.01496623772442621</v>
       </c>
       <c r="E4">
-        <v>-0.03206610390668175</v>
+        <v>-0.03785645484556505</v>
       </c>
       <c r="F4">
-        <v>-0.07118620219639193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.0807160836106893</v>
+      </c>
+      <c r="G4">
+        <v>-0.02066286019099903</v>
+      </c>
+      <c r="H4">
+        <v>0.04830182860701161</v>
+      </c>
+      <c r="I4">
+        <v>-0.05576258957192532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02558071796381481</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01012346229135422</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.004181177392068329</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005248636906179869</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.005747727931456659</v>
+      </c>
+      <c r="G6">
+        <v>0.0168947569819277</v>
+      </c>
+      <c r="H6">
+        <v>-0.01888076134358626</v>
+      </c>
+      <c r="I6">
+        <v>0.001142120507009779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04308882791452218</v>
+        <v>0.03438684431560909</v>
       </c>
       <c r="C7">
-        <v>-0.0175315295906357</v>
+        <v>0.02172079407265215</v>
       </c>
       <c r="D7">
-        <v>-0.04407386460270366</v>
+        <v>-0.03646915195015442</v>
       </c>
       <c r="E7">
-        <v>0.002209609086682386</v>
+        <v>-0.02655367040425198</v>
       </c>
       <c r="F7">
-        <v>-0.06346453431817571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.04977325486804075</v>
+      </c>
+      <c r="G7">
+        <v>-0.052450265982931</v>
+      </c>
+      <c r="H7">
+        <v>-0.0001235436405583955</v>
+      </c>
+      <c r="I7">
+        <v>-0.03652465452170685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.05266080609594657</v>
+        <v>0.02524153358585942</v>
       </c>
       <c r="C8">
-        <v>-0.05494995736437018</v>
+        <v>0.05322177426204232</v>
       </c>
       <c r="D8">
-        <v>-0.02899611246431961</v>
+        <v>-0.01131526118826749</v>
       </c>
       <c r="E8">
-        <v>-0.02653843995193515</v>
+        <v>-0.01577968597001692</v>
       </c>
       <c r="F8">
-        <v>-0.07085421176032705</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07419866367606058</v>
+      </c>
+      <c r="G8">
+        <v>-0.04092888166620406</v>
+      </c>
+      <c r="H8">
+        <v>0.03961610028845571</v>
+      </c>
+      <c r="I8">
+        <v>-0.06263906383504289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.07868829279134767</v>
+        <v>0.05922919142082932</v>
       </c>
       <c r="C9">
-        <v>-0.0286782741666387</v>
+        <v>0.04487556507785857</v>
       </c>
       <c r="D9">
-        <v>-0.05468121829629735</v>
+        <v>-0.0180011525405993</v>
       </c>
       <c r="E9">
-        <v>-0.04558990649153906</v>
+        <v>-0.03388736223194098</v>
       </c>
       <c r="F9">
-        <v>-0.05604339630387446</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.08041024966988852</v>
+      </c>
+      <c r="G9">
+        <v>-0.02220050778807305</v>
+      </c>
+      <c r="H9">
+        <v>0.04354566174887654</v>
+      </c>
+      <c r="I9">
+        <v>-0.03161017223919541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02620955946742227</v>
+        <v>0.03642437376564082</v>
       </c>
       <c r="C10">
-        <v>0.1572377760886498</v>
+        <v>-0.1666844981366976</v>
       </c>
       <c r="D10">
-        <v>0.05421158785264462</v>
+        <v>0.00913829363082193</v>
       </c>
       <c r="E10">
-        <v>0.03640752352103492</v>
+        <v>0.02385082690721746</v>
       </c>
       <c r="F10">
-        <v>-0.07618784558661308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06900988280385634</v>
+      </c>
+      <c r="G10">
+        <v>-0.02010617212859148</v>
+      </c>
+      <c r="H10">
+        <v>0.04038436964011543</v>
+      </c>
+      <c r="I10">
+        <v>-0.03769670725209086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05742401828523714</v>
+        <v>0.04773836649115305</v>
       </c>
       <c r="C11">
-        <v>-0.01803833192758654</v>
+        <v>0.03344673235401412</v>
       </c>
       <c r="D11">
-        <v>-0.01397876329338951</v>
+        <v>0.005974069929432047</v>
       </c>
       <c r="E11">
-        <v>0.00594589805126911</v>
+        <v>-0.00744711358755227</v>
       </c>
       <c r="F11">
-        <v>-0.045480288415551</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03875431029485411</v>
+      </c>
+      <c r="G11">
+        <v>0.0002234162291189618</v>
+      </c>
+      <c r="H11">
+        <v>0.01264370105219366</v>
+      </c>
+      <c r="I11">
+        <v>-0.02926287420568121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04628738448019129</v>
+        <v>0.04332523678316247</v>
       </c>
       <c r="C12">
-        <v>-0.02042866686253477</v>
+        <v>0.03104943075140665</v>
       </c>
       <c r="D12">
-        <v>-0.01056019798365793</v>
+        <v>-0.005639049165965865</v>
       </c>
       <c r="E12">
-        <v>-0.01121144934563408</v>
+        <v>-0.007954573229070779</v>
       </c>
       <c r="F12">
-        <v>-0.02826531976933229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01402756281475569</v>
+      </c>
+      <c r="G12">
+        <v>-0.003615264833515923</v>
+      </c>
+      <c r="H12">
+        <v>0.005254713022083931</v>
+      </c>
+      <c r="I12">
+        <v>-0.01790973946726912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.05915489032401489</v>
+        <v>0.04196334669986848</v>
       </c>
       <c r="C13">
-        <v>-0.02523039868026012</v>
+        <v>0.02963081870035477</v>
       </c>
       <c r="D13">
-        <v>-0.02701655241953832</v>
+        <v>0.01518581414316854</v>
       </c>
       <c r="E13">
-        <v>0.02971575467634627</v>
+        <v>-0.00814757267464525</v>
       </c>
       <c r="F13">
-        <v>-0.1098418487451819</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1034084296655795</v>
+      </c>
+      <c r="G13">
+        <v>-0.03034135264240322</v>
+      </c>
+      <c r="H13">
+        <v>0.03380471668200477</v>
+      </c>
+      <c r="I13">
+        <v>-0.06250902615823571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03467652810127529</v>
+        <v>0.02635113987954156</v>
       </c>
       <c r="C14">
-        <v>-0.02060115514745666</v>
+        <v>0.02524613757974244</v>
       </c>
       <c r="D14">
-        <v>-0.03975112053357533</v>
+        <v>-0.005516240380567089</v>
       </c>
       <c r="E14">
-        <v>-0.005373287948324618</v>
+        <v>-0.02775993240378855</v>
       </c>
       <c r="F14">
-        <v>-0.02239099789674012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03745467197385077</v>
+      </c>
+      <c r="G14">
+        <v>-0.05453485785627375</v>
+      </c>
+      <c r="H14">
+        <v>0.01800134946265373</v>
+      </c>
+      <c r="I14">
+        <v>-0.01717962813929502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04931155334854308</v>
+        <v>0.04191214163578703</v>
       </c>
       <c r="C16">
-        <v>-0.02372710816288215</v>
+        <v>0.03531372721723525</v>
       </c>
       <c r="D16">
-        <v>-0.009011759758895493</v>
+        <v>0.0005035082558163818</v>
       </c>
       <c r="E16">
-        <v>0.001259770406642506</v>
+        <v>-0.004997779938244627</v>
       </c>
       <c r="F16">
-        <v>-0.03379403201349943</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03372677563231192</v>
+      </c>
+      <c r="G16">
+        <v>-0.005666379093342797</v>
+      </c>
+      <c r="H16">
+        <v>0.005677773509454518</v>
+      </c>
+      <c r="I16">
+        <v>-0.0303502005713307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06772386476988025</v>
+        <v>0.05323475145389597</v>
       </c>
       <c r="C19">
-        <v>-0.0482710396790295</v>
+        <v>0.04885777523799586</v>
       </c>
       <c r="D19">
-        <v>-0.02582125626797488</v>
+        <v>0.003218880179842104</v>
       </c>
       <c r="E19">
-        <v>0.0009920347494973448</v>
+        <v>-0.01625908216232526</v>
       </c>
       <c r="F19">
-        <v>-0.08882610390439401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.09603573750622509</v>
+      </c>
+      <c r="G19">
+        <v>-0.05040315181453705</v>
+      </c>
+      <c r="H19">
+        <v>0.02611604870030923</v>
+      </c>
+      <c r="I19">
+        <v>-0.06919816752563218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03203065919966425</v>
+        <v>0.01902765500135275</v>
       </c>
       <c r="C20">
-        <v>-0.02933050629673886</v>
+        <v>0.03027990145368116</v>
       </c>
       <c r="D20">
-        <v>-0.0453220165033616</v>
+        <v>-0.005190222679367863</v>
       </c>
       <c r="E20">
-        <v>-0.02013721268336486</v>
+        <v>-0.02041125098573006</v>
       </c>
       <c r="F20">
-        <v>-0.06693906834423091</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06527464129051441</v>
+      </c>
+      <c r="G20">
+        <v>-0.05742579589292193</v>
+      </c>
+      <c r="H20">
+        <v>0.01608868808007138</v>
+      </c>
+      <c r="I20">
+        <v>-0.07415528377775403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03592550089181445</v>
+        <v>0.03370209383802052</v>
       </c>
       <c r="C21">
-        <v>-0.04063329504619712</v>
+        <v>0.03226218014590718</v>
       </c>
       <c r="D21">
-        <v>-0.02311773947989143</v>
+        <v>-0.01138995095459191</v>
       </c>
       <c r="E21">
-        <v>0.004699764231805913</v>
+        <v>-0.00555351523755151</v>
       </c>
       <c r="F21">
-        <v>-0.1001211279359196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07910440767999272</v>
+      </c>
+      <c r="G21">
+        <v>-0.01243839124559082</v>
+      </c>
+      <c r="H21">
+        <v>0.04922759051252847</v>
+      </c>
+      <c r="I21">
+        <v>-0.002540451854716867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.04912601341040638</v>
+        <v>0.0404267117705675</v>
       </c>
       <c r="C24">
-        <v>-0.02153750087238663</v>
+        <v>0.03092002702671517</v>
       </c>
       <c r="D24">
-        <v>-0.01515667897949029</v>
+        <v>0.0002343020921943946</v>
       </c>
       <c r="E24">
-        <v>-0.002711609646540233</v>
+        <v>-0.007417307640553325</v>
       </c>
       <c r="F24">
-        <v>-0.04336137236753519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03704326277443472</v>
+      </c>
+      <c r="G24">
+        <v>-0.0007578672284762469</v>
+      </c>
+      <c r="H24">
+        <v>0.007999757071296043</v>
+      </c>
+      <c r="I24">
+        <v>-0.03199020774564282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.04982392759351052</v>
+        <v>0.0467624458278443</v>
       </c>
       <c r="C25">
-        <v>-0.01648706102075134</v>
+        <v>0.02742980371043427</v>
       </c>
       <c r="D25">
-        <v>-0.01393975156462988</v>
+        <v>0.0007922766008211897</v>
       </c>
       <c r="E25">
-        <v>-0.002592292801406214</v>
+        <v>-0.007365525263150806</v>
       </c>
       <c r="F25">
-        <v>-0.04006492600014921</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04275066372643176</v>
+      </c>
+      <c r="G25">
+        <v>0.001473718018923129</v>
+      </c>
+      <c r="H25">
+        <v>0.01232458023374874</v>
+      </c>
+      <c r="I25">
+        <v>-0.02175445465218526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02707488246759333</v>
+        <v>0.01521684501103204</v>
       </c>
       <c r="C26">
-        <v>-0.03271218097096012</v>
+        <v>0.03037439313573157</v>
       </c>
       <c r="D26">
-        <v>-0.02502793239696634</v>
+        <v>0.004620643583208522</v>
       </c>
       <c r="E26">
-        <v>0.01832347573878886</v>
+        <v>-0.0009855528860629747</v>
       </c>
       <c r="F26">
-        <v>-0.03119845947180667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04328785854940823</v>
+      </c>
+      <c r="G26">
+        <v>-0.03156469507612104</v>
+      </c>
+      <c r="H26">
+        <v>0.0144684326128206</v>
+      </c>
+      <c r="I26">
+        <v>-0.03063664840787945</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1195148541149775</v>
+        <v>0.0705803145283317</v>
       </c>
       <c r="C27">
-        <v>-0.02068259647398251</v>
+        <v>0.02729725593037681</v>
       </c>
       <c r="D27">
-        <v>-0.04138278962074763</v>
+        <v>-0.003283039579390086</v>
       </c>
       <c r="E27">
-        <v>-0.02424954573215185</v>
+        <v>-0.03017201135743963</v>
       </c>
       <c r="F27">
-        <v>-0.07453545510748991</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.0641863898601302</v>
+      </c>
+      <c r="G27">
+        <v>-0.01815936635321252</v>
+      </c>
+      <c r="H27">
+        <v>0.0263394032708094</v>
+      </c>
+      <c r="I27">
+        <v>-0.03620336689259063</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.02797742444654181</v>
+        <v>0.05078581768579548</v>
       </c>
       <c r="C28">
-        <v>0.2347877426678504</v>
+        <v>-0.2518684793624271</v>
       </c>
       <c r="D28">
-        <v>0.09469350422541291</v>
+        <v>0.004665146802747915</v>
       </c>
       <c r="E28">
-        <v>0.03422298438440903</v>
+        <v>0.03628005724893391</v>
       </c>
       <c r="F28">
-        <v>-0.05524235738609559</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05986161724359654</v>
+      </c>
+      <c r="G28">
+        <v>-0.03445752621793451</v>
+      </c>
+      <c r="H28">
+        <v>0.04398616315997544</v>
+      </c>
+      <c r="I28">
+        <v>-0.06501240687128935</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.03099714824699277</v>
+        <v>0.0236142675727427</v>
       </c>
       <c r="C29">
-        <v>-0.01970118549172907</v>
+        <v>0.02295417350639781</v>
       </c>
       <c r="D29">
-        <v>-0.03637677063701868</v>
+        <v>-0.00880850871412691</v>
       </c>
       <c r="E29">
-        <v>-0.01674652487241212</v>
+        <v>-0.02936307837136396</v>
       </c>
       <c r="F29">
-        <v>-0.01991190249527626</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03328514049498538</v>
+      </c>
+      <c r="G29">
+        <v>-0.05462600800516397</v>
+      </c>
+      <c r="H29">
+        <v>0.0219895374584679</v>
+      </c>
+      <c r="I29">
+        <v>-0.001577854893979607</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1122087348914138</v>
+        <v>0.08836217586114022</v>
       </c>
       <c r="C30">
-        <v>-0.01665030559626611</v>
+        <v>0.05358513257490356</v>
       </c>
       <c r="D30">
-        <v>-0.05582332516293394</v>
+        <v>0.03848513947124618</v>
       </c>
       <c r="E30">
-        <v>0.003666351466492472</v>
+        <v>-0.03207920444577832</v>
       </c>
       <c r="F30">
-        <v>-0.1040803369472647</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1050771091841079</v>
+      </c>
+      <c r="G30">
+        <v>-0.01149516459878676</v>
+      </c>
+      <c r="H30">
+        <v>-0.006688442629968425</v>
+      </c>
+      <c r="I30">
+        <v>-0.01962568979171848</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06940719070534586</v>
+        <v>0.06233546106768893</v>
       </c>
       <c r="C31">
-        <v>-0.01473694598532966</v>
+        <v>0.02380210016367344</v>
       </c>
       <c r="D31">
-        <v>-0.02950199032056623</v>
+        <v>0.01079766323174035</v>
       </c>
       <c r="E31">
-        <v>0.03439004847372101</v>
+        <v>-0.02251855426138511</v>
       </c>
       <c r="F31">
-        <v>0.03956378168409463</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.005149167792303254</v>
+      </c>
+      <c r="G31">
+        <v>-0.04381932833809721</v>
+      </c>
+      <c r="H31">
+        <v>0.04009403761230836</v>
+      </c>
+      <c r="I31">
+        <v>-0.01076345344665293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.06815878933106027</v>
+        <v>0.04100519110899094</v>
       </c>
       <c r="C32">
-        <v>-0.03883748322928202</v>
+        <v>0.04773897331559555</v>
       </c>
       <c r="D32">
-        <v>-0.03761547262087086</v>
+        <v>-0.01611417275864747</v>
       </c>
       <c r="E32">
-        <v>-0.01550325493718573</v>
+        <v>-0.03217583038528907</v>
       </c>
       <c r="F32">
-        <v>-0.09362112781772035</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08297096862660842</v>
+      </c>
+      <c r="G32">
+        <v>-0.03203019939511999</v>
+      </c>
+      <c r="H32">
+        <v>0.02754652890990934</v>
+      </c>
+      <c r="I32">
+        <v>-0.05314937407477848</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06857449740385657</v>
+        <v>0.05419097581291198</v>
       </c>
       <c r="C33">
-        <v>-0.0573504805365002</v>
+        <v>0.05683909934122136</v>
       </c>
       <c r="D33">
-        <v>-0.04226069602018229</v>
+        <v>0.01938694533774505</v>
       </c>
       <c r="E33">
-        <v>0.01096044328058146</v>
+        <v>-0.006681168298828435</v>
       </c>
       <c r="F33">
-        <v>-0.06895107521194359</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07584083183674857</v>
+      </c>
+      <c r="G33">
+        <v>-0.03832605127572757</v>
+      </c>
+      <c r="H33">
+        <v>0.03907957415690821</v>
+      </c>
+      <c r="I33">
+        <v>-0.03648556346947019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04822169404192377</v>
+        <v>0.04174168158868007</v>
       </c>
       <c r="C34">
-        <v>-0.01994829760813748</v>
+        <v>0.03558537725608315</v>
       </c>
       <c r="D34">
-        <v>-0.01974741649400862</v>
+        <v>-0.004602790893527855</v>
       </c>
       <c r="E34">
-        <v>-0.004011998945125231</v>
+        <v>-0.0152274085343806</v>
       </c>
       <c r="F34">
-        <v>-0.02954304136906581</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03387898411281114</v>
+      </c>
+      <c r="G34">
+        <v>-0.005354866792760552</v>
+      </c>
+      <c r="H34">
+        <v>0.00866097138458038</v>
+      </c>
+      <c r="I34">
+        <v>-0.02508292129413849</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.0180536411405062</v>
+        <v>0.01580483494161274</v>
       </c>
       <c r="C36">
-        <v>-0.003089329251448167</v>
+        <v>0.005609212844202126</v>
       </c>
       <c r="D36">
-        <v>-0.01211351393062512</v>
+        <v>-0.003556215376251584</v>
       </c>
       <c r="E36">
-        <v>-0.0037850389925645</v>
+        <v>-0.01003607675101616</v>
       </c>
       <c r="F36">
-        <v>-0.01398601366930099</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02356341549806876</v>
+      </c>
+      <c r="G36">
+        <v>-0.03615551750323515</v>
+      </c>
+      <c r="H36">
+        <v>0.02483143830189909</v>
+      </c>
+      <c r="I36">
+        <v>0.01097447036066651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.04413996382737405</v>
+        <v>0.03643869384517733</v>
       </c>
       <c r="C38">
-        <v>-0.01018694588839578</v>
+        <v>0.01664285442567219</v>
       </c>
       <c r="D38">
-        <v>-0.01611406933679317</v>
+        <v>-0.003306383822643574</v>
       </c>
       <c r="E38">
-        <v>-0.01785956304629561</v>
+        <v>-0.008788897739798931</v>
       </c>
       <c r="F38">
-        <v>-0.02227548395251761</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04944198665647428</v>
+      </c>
+      <c r="G38">
+        <v>-0.01989337167956945</v>
+      </c>
+      <c r="H38">
+        <v>0.02726335888918324</v>
+      </c>
+      <c r="I38">
+        <v>0.01239040689367425</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07002479498984039</v>
+        <v>0.05251873857558609</v>
       </c>
       <c r="C39">
-        <v>-0.02006158183870568</v>
+        <v>0.04935028537559104</v>
       </c>
       <c r="D39">
-        <v>-0.02200373077746202</v>
+        <v>0.00531081237689469</v>
       </c>
       <c r="E39">
-        <v>0.01319745164022119</v>
+        <v>-0.01698179288066187</v>
       </c>
       <c r="F39">
-        <v>-0.03920234341661519</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05517145240898792</v>
+      </c>
+      <c r="G39">
+        <v>0.00525779159156776</v>
+      </c>
+      <c r="H39">
+        <v>0.01949172204385917</v>
+      </c>
+      <c r="I39">
+        <v>-0.007706454077669455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07387565058825661</v>
+        <v>0.05563304560773094</v>
       </c>
       <c r="C40">
-        <v>-0.02247297587831953</v>
+        <v>0.04580321756975051</v>
       </c>
       <c r="D40">
-        <v>-0.0604927918701665</v>
+        <v>0.02163680107836902</v>
       </c>
       <c r="E40">
-        <v>0.03400960116753417</v>
+        <v>-0.023465312530661</v>
       </c>
       <c r="F40">
-        <v>-0.1084129223530344</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.09585111132158482</v>
+      </c>
+      <c r="G40">
+        <v>-0.02850527540839158</v>
+      </c>
+      <c r="H40">
+        <v>0.03408797766138328</v>
+      </c>
+      <c r="I40">
+        <v>-0.1115327864009467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.002561187723169522</v>
+        <v>0.004353270135531249</v>
       </c>
       <c r="C41">
-        <v>-0.02220574376085885</v>
+        <v>0.01147505386964927</v>
       </c>
       <c r="D41">
-        <v>-0.02840195974783285</v>
+        <v>0.0007085754875516267</v>
       </c>
       <c r="E41">
-        <v>-0.00638740632304715</v>
+        <v>-0.01114906064897803</v>
       </c>
       <c r="F41">
-        <v>0.01101428562726259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.009703171614961167</v>
+      </c>
+      <c r="G41">
+        <v>-0.04527431553564432</v>
+      </c>
+      <c r="H41">
+        <v>0.0426514110308602</v>
+      </c>
+      <c r="I41">
+        <v>-0.009268739112518238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1872234673881977</v>
+        <v>0.2056355422125647</v>
       </c>
       <c r="C42">
-        <v>-0.4706643616883957</v>
+        <v>0.1995103749384906</v>
       </c>
       <c r="D42">
-        <v>0.7866011970935398</v>
+        <v>0.05031619963071141</v>
       </c>
       <c r="E42">
-        <v>0.2683115739204734</v>
+        <v>0.9247362252886527</v>
       </c>
       <c r="F42">
-        <v>0.04591806354107827</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1619369133637956</v>
+      </c>
+      <c r="G42">
+        <v>0.009811699173475828</v>
+      </c>
+      <c r="H42">
+        <v>0.000702600860091929</v>
+      </c>
+      <c r="I42">
+        <v>-0.06199036367209151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.006286042655258881</v>
+        <v>0.008179342898726799</v>
       </c>
       <c r="C43">
-        <v>-0.02496835938929091</v>
+        <v>0.01335226749990195</v>
       </c>
       <c r="D43">
-        <v>-0.0300937158538785</v>
+        <v>0.003320998764744515</v>
       </c>
       <c r="E43">
-        <v>-0.001691268405859955</v>
+        <v>-0.00994817055128145</v>
       </c>
       <c r="F43">
-        <v>-0.02068173571718804</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.02427153265879711</v>
+      </c>
+      <c r="G43">
+        <v>-0.03285008910953742</v>
+      </c>
+      <c r="H43">
+        <v>0.02518824183033103</v>
+      </c>
+      <c r="I43">
+        <v>-0.01886043686066483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04472560656732173</v>
+        <v>0.02849802072776457</v>
       </c>
       <c r="C44">
-        <v>-0.04882055208951541</v>
+        <v>0.04476041261994484</v>
       </c>
       <c r="D44">
-        <v>-0.04464474192947725</v>
+        <v>-0.001511066058590045</v>
       </c>
       <c r="E44">
-        <v>0.004003873766737178</v>
+        <v>-0.01285835191917296</v>
       </c>
       <c r="F44">
-        <v>-0.1153898542037876</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1203607416211835</v>
+      </c>
+      <c r="G44">
+        <v>-0.08163527750919783</v>
+      </c>
+      <c r="H44">
+        <v>0.05928623223401303</v>
+      </c>
+      <c r="I44">
+        <v>-0.05646614796758169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.033043127286703</v>
+        <v>0.02573150757993671</v>
       </c>
       <c r="C46">
-        <v>-0.02418129745768218</v>
+        <v>0.03833991113213292</v>
       </c>
       <c r="D46">
-        <v>-0.03775819045604416</v>
+        <v>0.004011078558228692</v>
       </c>
       <c r="E46">
-        <v>-0.0003603905599045444</v>
+        <v>-0.02951819797850165</v>
       </c>
       <c r="F46">
-        <v>-0.01635293311243062</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04546430335034476</v>
+      </c>
+      <c r="G46">
+        <v>-0.05919926371593421</v>
+      </c>
+      <c r="H46">
+        <v>0.02181886744477524</v>
+      </c>
+      <c r="I46">
+        <v>-0.008058907375547453</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09412368259266952</v>
+        <v>0.08762763658602449</v>
       </c>
       <c r="C47">
-        <v>-0.01227570434396715</v>
+        <v>0.02273455510917422</v>
       </c>
       <c r="D47">
-        <v>-0.02923948665850754</v>
+        <v>0.004867905797461014</v>
       </c>
       <c r="E47">
-        <v>-0.002220198266810665</v>
+        <v>-0.02655563209190097</v>
       </c>
       <c r="F47">
-        <v>0.03128507023587954</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01867311966271699</v>
+      </c>
+      <c r="G47">
+        <v>-0.06133862556814417</v>
+      </c>
+      <c r="H47">
+        <v>0.03431607875998789</v>
+      </c>
+      <c r="I47">
+        <v>-0.03222521719391301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02081447294268706</v>
+        <v>0.02088891399993942</v>
       </c>
       <c r="C48">
-        <v>-0.01996196845008555</v>
+        <v>0.0183516362085204</v>
       </c>
       <c r="D48">
-        <v>-0.02619036832315538</v>
+        <v>-0.0007452941186679293</v>
       </c>
       <c r="E48">
-        <v>-0.00110234216851382</v>
+        <v>-0.01359002627434836</v>
       </c>
       <c r="F48">
-        <v>-0.02208822324779091</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.0263647038597585</v>
+      </c>
+      <c r="G48">
+        <v>-0.02389477406479939</v>
+      </c>
+      <c r="H48">
+        <v>0.01881121502603535</v>
+      </c>
+      <c r="I48">
+        <v>-0.008471916646002308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09290311222082938</v>
+        <v>0.08883183218749707</v>
       </c>
       <c r="C50">
-        <v>-0.03103246328894719</v>
+        <v>0.04302319798003904</v>
       </c>
       <c r="D50">
-        <v>-0.03208420025874421</v>
+        <v>-0.009311087895498634</v>
       </c>
       <c r="E50">
-        <v>0.007462908330758864</v>
+        <v>-0.02228560148619246</v>
       </c>
       <c r="F50">
-        <v>0.03510954214915032</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01248781572892255</v>
+      </c>
+      <c r="G50">
+        <v>-0.04195039482200025</v>
+      </c>
+      <c r="H50">
+        <v>-0.005373467679153914</v>
+      </c>
+      <c r="I50">
+        <v>0.005394353542147786</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05584025411020686</v>
+        <v>0.03907251489214889</v>
       </c>
       <c r="C51">
-        <v>0.01147647442641081</v>
+        <v>-0.003191906846162646</v>
       </c>
       <c r="D51">
-        <v>-0.0260973211371559</v>
+        <v>0.01118382615797466</v>
       </c>
       <c r="E51">
-        <v>0.03128282904502672</v>
+        <v>-0.01282251899072782</v>
       </c>
       <c r="F51">
-        <v>-0.05513576321651343</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.08715704556735504</v>
+      </c>
+      <c r="G51">
+        <v>-0.06630112679722015</v>
+      </c>
+      <c r="H51">
+        <v>0.0584922202201311</v>
+      </c>
+      <c r="I51">
+        <v>-0.03193544337702257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1342870064912476</v>
+        <v>0.124802656652534</v>
       </c>
       <c r="C53">
-        <v>-0.01243731852298097</v>
+        <v>0.04097528150089235</v>
       </c>
       <c r="D53">
-        <v>-0.05751752759931602</v>
+        <v>0.006029818223212288</v>
       </c>
       <c r="E53">
-        <v>0.005342857668632177</v>
+        <v>-0.05041451449992745</v>
       </c>
       <c r="F53">
-        <v>0.06320058973925427</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04744847130150349</v>
+      </c>
+      <c r="G53">
+        <v>-0.009189350955483152</v>
+      </c>
+      <c r="H53">
+        <v>0.02848568045148725</v>
+      </c>
+      <c r="I53">
+        <v>-0.04023306009840915</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02754654889266986</v>
+        <v>0.0262183424046309</v>
       </c>
       <c r="C54">
-        <v>-0.002555252831468594</v>
+        <v>0.008804682577432575</v>
       </c>
       <c r="D54">
-        <v>-0.03504555164981892</v>
+        <v>-0.004541958021329207</v>
       </c>
       <c r="E54">
-        <v>-0.009721502427673195</v>
+        <v>-0.03068447385260462</v>
       </c>
       <c r="F54">
-        <v>-0.02646088305177783</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.03268352135053273</v>
+      </c>
+      <c r="G54">
+        <v>-0.05222137210760878</v>
+      </c>
+      <c r="H54">
+        <v>0.03449623638357076</v>
+      </c>
+      <c r="I54">
+        <v>-0.0005088090138932112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1076814404090874</v>
+        <v>0.09858610009474734</v>
       </c>
       <c r="C55">
-        <v>0.002634285926285023</v>
+        <v>0.03463106478250485</v>
       </c>
       <c r="D55">
-        <v>-0.02864412250921062</v>
+        <v>-0.01181486587525847</v>
       </c>
       <c r="E55">
-        <v>-0.0401624257605763</v>
+        <v>-0.03469507478133635</v>
       </c>
       <c r="F55">
-        <v>0.02859964307838598</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03759209052782526</v>
+      </c>
+      <c r="G55">
+        <v>-0.02706102852409676</v>
+      </c>
+      <c r="H55">
+        <v>-0.007606849157146537</v>
+      </c>
+      <c r="I55">
+        <v>-0.01920967894030755</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1689827034414048</v>
+        <v>0.1649162106012894</v>
       </c>
       <c r="C56">
-        <v>0.03953416672989155</v>
+        <v>0.0267080795121686</v>
       </c>
       <c r="D56">
-        <v>-0.07814973978371093</v>
+        <v>0.002995774098399151</v>
       </c>
       <c r="E56">
-        <v>-0.02721726599372972</v>
+        <v>-0.08409738725771557</v>
       </c>
       <c r="F56">
-        <v>0.1062810904276533</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.0921941007693675</v>
+      </c>
+      <c r="G56">
+        <v>0.02965092683871734</v>
+      </c>
+      <c r="H56">
+        <v>-0.01470954586556779</v>
+      </c>
+      <c r="I56">
+        <v>-0.04030109773930398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.0811852069475323</v>
+        <v>0.06368845298327661</v>
       </c>
       <c r="C57">
-        <v>-0.02252594004876391</v>
+        <v>0.03169072322840132</v>
       </c>
       <c r="D57">
-        <v>-0.03996774083498191</v>
+        <v>0.021188510601798</v>
       </c>
       <c r="E57">
-        <v>0.02905136165332189</v>
+        <v>-0.005747113563792719</v>
       </c>
       <c r="F57">
-        <v>-0.05325796680740373</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.07235014851403281</v>
+      </c>
+      <c r="G57">
+        <v>-0.01366438080177805</v>
+      </c>
+      <c r="H57">
+        <v>0.01605845979076609</v>
+      </c>
+      <c r="I57">
+        <v>-0.02350278673037974</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.2055107885532798</v>
+        <v>0.208142139816465</v>
       </c>
       <c r="C58">
-        <v>-0.06372682912713674</v>
+        <v>0.1132877568065895</v>
       </c>
       <c r="D58">
-        <v>-0.04237786173263598</v>
+        <v>0.09451724517435685</v>
       </c>
       <c r="E58">
-        <v>0.05155893400714701</v>
+        <v>0.0382193479571652</v>
       </c>
       <c r="F58">
-        <v>-0.1352328044351737</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2840663106467259</v>
+      </c>
+      <c r="G58">
+        <v>-0.3961184290379651</v>
+      </c>
+      <c r="H58">
+        <v>-0.3021286484777122</v>
+      </c>
+      <c r="I58">
+        <v>0.702107230548269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.02638135954221497</v>
+        <v>0.05080482674519012</v>
       </c>
       <c r="C59">
-        <v>0.1941725555690256</v>
+        <v>-0.2067330663596126</v>
       </c>
       <c r="D59">
-        <v>0.05238212047643902</v>
+        <v>0.01988065719665943</v>
       </c>
       <c r="E59">
-        <v>0.02496908950625448</v>
+        <v>0.006267170141778516</v>
       </c>
       <c r="F59">
-        <v>-0.05427242284864136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.07099355235050875</v>
+      </c>
+      <c r="G59">
+        <v>0.00505615826965373</v>
+      </c>
+      <c r="H59">
+        <v>0.01382089221057094</v>
+      </c>
+      <c r="I59">
+        <v>-0.009592036265425468</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.180815802541116</v>
+        <v>0.1913979941982272</v>
       </c>
       <c r="C60">
-        <v>0.07309766852799042</v>
+        <v>-0.05110748140213955</v>
       </c>
       <c r="D60">
-        <v>-0.02329590394520076</v>
+        <v>0.05036136501769662</v>
       </c>
       <c r="E60">
-        <v>0.07099201368936511</v>
+        <v>-0.01282703074426966</v>
       </c>
       <c r="F60">
-        <v>-0.1810701783091086</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1954286642893946</v>
+      </c>
+      <c r="G60">
+        <v>0.3403230566525717</v>
+      </c>
+      <c r="H60">
+        <v>-0.02402661526283348</v>
+      </c>
+      <c r="I60">
+        <v>0.01859627359028633</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04163504460141771</v>
+        <v>0.03931742922572549</v>
       </c>
       <c r="C61">
-        <v>-0.01489478725673819</v>
+        <v>0.03404498386788672</v>
       </c>
       <c r="D61">
-        <v>-0.01232694810988797</v>
+        <v>-0.001780757559885951</v>
       </c>
       <c r="E61">
-        <v>-0.005438523571029843</v>
+        <v>-0.01080775953535026</v>
       </c>
       <c r="F61">
-        <v>-0.03392086680023377</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03575994332234349</v>
+      </c>
+      <c r="G61">
+        <v>0.009528519833545954</v>
+      </c>
+      <c r="H61">
+        <v>0.01014380597388169</v>
+      </c>
+      <c r="I61">
+        <v>0.003046407031873765</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04130254212827308</v>
+        <v>0.03043545443208407</v>
       </c>
       <c r="C63">
-        <v>-0.01045231876566739</v>
+        <v>0.02545477798266671</v>
       </c>
       <c r="D63">
-        <v>-0.03165293353764109</v>
+        <v>0.0007582893597773931</v>
       </c>
       <c r="E63">
-        <v>0.001533142713821762</v>
+        <v>-0.01773404665650357</v>
       </c>
       <c r="F63">
-        <v>-0.03695398993880892</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.0306394824308596</v>
+      </c>
+      <c r="G63">
+        <v>-0.04810196438959404</v>
+      </c>
+      <c r="H63">
+        <v>0.006965995931622959</v>
+      </c>
+      <c r="I63">
+        <v>-0.03080664209972141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06052563275505906</v>
+        <v>0.05662026922119479</v>
       </c>
       <c r="C64">
-        <v>-0.0284048355174024</v>
+        <v>0.0354611643638575</v>
       </c>
       <c r="D64">
-        <v>-0.02735593348852517</v>
+        <v>-0.01034307830291812</v>
       </c>
       <c r="E64">
-        <v>-0.03055669200030981</v>
+        <v>-0.01876770032770123</v>
       </c>
       <c r="F64">
-        <v>-0.03261311313913431</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.0379969641863583</v>
+      </c>
+      <c r="G64">
+        <v>-0.02334638955029105</v>
+      </c>
+      <c r="H64">
+        <v>0.06089757767250665</v>
+      </c>
+      <c r="I64">
+        <v>-0.03567430230538791</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02825940331013562</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01014325001645814</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.004587835440511849</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.005850734827977487</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.002154261662591826</v>
+      </c>
+      <c r="G65">
+        <v>0.02171462214438128</v>
+      </c>
+      <c r="H65">
+        <v>-0.01796755682143797</v>
+      </c>
+      <c r="I65">
+        <v>0.0007423983516051865</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.07712702585049123</v>
+        <v>0.06655846692126115</v>
       </c>
       <c r="C66">
-        <v>-0.03140279274909993</v>
+        <v>0.05973816803250256</v>
       </c>
       <c r="D66">
-        <v>-0.0507104045331454</v>
+        <v>0.01276962331556356</v>
       </c>
       <c r="E66">
-        <v>-0.002350799482375729</v>
+        <v>-0.04323825359155511</v>
       </c>
       <c r="F66">
-        <v>-0.07254897796047793</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06664961326174623</v>
+      </c>
+      <c r="G66">
+        <v>0.009845851148615735</v>
+      </c>
+      <c r="H66">
+        <v>0.006349526366775671</v>
+      </c>
+      <c r="I66">
+        <v>-0.04777858514595029</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05374570651465534</v>
+        <v>0.04919796896426821</v>
       </c>
       <c r="C67">
-        <v>0.01334346547473124</v>
+        <v>-0.001756411028040635</v>
       </c>
       <c r="D67">
-        <v>-0.003170637977699791</v>
+        <v>0.001980051542535486</v>
       </c>
       <c r="E67">
-        <v>-0.005614810768483736</v>
+        <v>-0.008096603805235083</v>
       </c>
       <c r="F67">
-        <v>-0.01840383264552706</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.0369203503080122</v>
+      </c>
+      <c r="G67">
+        <v>-0.001061387397074313</v>
+      </c>
+      <c r="H67">
+        <v>0.03749657849349995</v>
+      </c>
+      <c r="I67">
+        <v>0.02579724602574754</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.04882719816219257</v>
+        <v>0.06200544955754447</v>
       </c>
       <c r="C68">
-        <v>0.2305461380162489</v>
+        <v>-0.2397682168773043</v>
       </c>
       <c r="D68">
-        <v>0.08942600548695424</v>
+        <v>0.01832466443854995</v>
       </c>
       <c r="E68">
-        <v>0.03411543576444634</v>
+        <v>0.02393422548603785</v>
       </c>
       <c r="F68">
-        <v>-0.06493554007402327</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05683521108082538</v>
+      </c>
+      <c r="G68">
+        <v>-0.0125407543912703</v>
+      </c>
+      <c r="H68">
+        <v>-0.004586547942705879</v>
+      </c>
+      <c r="I68">
+        <v>-0.02611886194655812</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07815538599308756</v>
+        <v>0.07173174595398812</v>
       </c>
       <c r="C69">
-        <v>-0.001405824797004691</v>
+        <v>0.02164300428342899</v>
       </c>
       <c r="D69">
-        <v>-0.03004242328736433</v>
+        <v>0.006492137291432398</v>
       </c>
       <c r="E69">
-        <v>-0.0007162467017119255</v>
+        <v>-0.03060892260953399</v>
       </c>
       <c r="F69">
-        <v>0.01454036104334121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.002938982075030694</v>
+      </c>
+      <c r="G69">
+        <v>-0.03819538725696565</v>
+      </c>
+      <c r="H69">
+        <v>0.02478535101644308</v>
+      </c>
+      <c r="I69">
+        <v>-0.01559855158290961</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.04223943963575784</v>
+        <v>0.05665006947398811</v>
       </c>
       <c r="C71">
-        <v>0.2834517343776094</v>
+        <v>-0.2651125053891328</v>
       </c>
       <c r="D71">
-        <v>0.1007068100563016</v>
+        <v>0.02160742871126602</v>
       </c>
       <c r="E71">
-        <v>0.06821022037083534</v>
+        <v>0.03819182645573106</v>
       </c>
       <c r="F71">
-        <v>-0.08580927154596708</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.07336871326054857</v>
+      </c>
+      <c r="G71">
+        <v>-0.02634730096852619</v>
+      </c>
+      <c r="H71">
+        <v>0.01944999654199655</v>
+      </c>
+      <c r="I71">
+        <v>-0.03184213188526636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1318507377712854</v>
+        <v>0.1318691891793701</v>
       </c>
       <c r="C72">
-        <v>0.02438533540536397</v>
+        <v>0.03766825092352647</v>
       </c>
       <c r="D72">
-        <v>-0.05414884410143252</v>
+        <v>0.009320132118892363</v>
       </c>
       <c r="E72">
-        <v>0.0003623948222495601</v>
+        <v>-0.07146792049871331</v>
       </c>
       <c r="F72">
-        <v>-0.07147679571759268</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.07318741190269099</v>
+      </c>
+      <c r="G72">
+        <v>0.05712906030723823</v>
+      </c>
+      <c r="H72">
+        <v>-0.0353810817831486</v>
+      </c>
+      <c r="I72">
+        <v>0.1425742239837423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2716528539937462</v>
+        <v>0.2689776829596729</v>
       </c>
       <c r="C73">
-        <v>0.1318675160667123</v>
+        <v>-0.0747389166412101</v>
       </c>
       <c r="D73">
-        <v>0.03309177198432758</v>
+        <v>0.08870013421715478</v>
       </c>
       <c r="E73">
-        <v>0.1085454083412495</v>
+        <v>0.03571537407635592</v>
       </c>
       <c r="F73">
-        <v>-0.3012687425328731</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.2812589283275593</v>
+      </c>
+      <c r="G73">
+        <v>0.5188015165419251</v>
+      </c>
+      <c r="H73">
+        <v>-0.09635264760803121</v>
+      </c>
+      <c r="I73">
+        <v>0.09256236652950577</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1504810312383592</v>
+        <v>0.1486780422543175</v>
       </c>
       <c r="C74">
-        <v>0.0005247686887612411</v>
+        <v>0.03699787379236038</v>
       </c>
       <c r="D74">
-        <v>-0.0378460936845918</v>
+        <v>0.0113310714345863</v>
       </c>
       <c r="E74">
-        <v>0.002714420213845562</v>
+        <v>-0.04644172218238041</v>
       </c>
       <c r="F74">
-        <v>0.05385032822756199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.07146420161729765</v>
+      </c>
+      <c r="G74">
+        <v>0.02480930174937538</v>
+      </c>
+      <c r="H74">
+        <v>-0.01930860124894075</v>
+      </c>
+      <c r="I74">
+        <v>-0.08240895781602121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2278250930472048</v>
+        <v>0.250593214970116</v>
       </c>
       <c r="C75">
-        <v>0.02751214612176687</v>
+        <v>0.0317077515301179</v>
       </c>
       <c r="D75">
-        <v>-0.08753226028227531</v>
+        <v>0.02981881143323144</v>
       </c>
       <c r="E75">
-        <v>0.00937331095945715</v>
+        <v>-0.1111305571178584</v>
       </c>
       <c r="F75">
-        <v>0.1451108604684626</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1453774815589202</v>
+      </c>
+      <c r="G75">
+        <v>0.01533472523877868</v>
+      </c>
+      <c r="H75">
+        <v>0.01552623269618185</v>
+      </c>
+      <c r="I75">
+        <v>-0.04051612189418684</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2527788298509376</v>
+        <v>0.2644778328646579</v>
       </c>
       <c r="C76">
-        <v>0.05799585884433459</v>
+        <v>0.0230097417997159</v>
       </c>
       <c r="D76">
-        <v>-0.08474748168037266</v>
+        <v>-0.008341537239314628</v>
       </c>
       <c r="E76">
-        <v>-0.05773803940743184</v>
+        <v>-0.132092431261296</v>
       </c>
       <c r="F76">
-        <v>0.1399160033282091</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1831307820908125</v>
+      </c>
+      <c r="G76">
+        <v>0.01860173865623116</v>
+      </c>
+      <c r="H76">
+        <v>-0.07001882568891177</v>
+      </c>
+      <c r="I76">
+        <v>-0.05539178544914564</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1410302490443292</v>
+        <v>0.1174391844357355</v>
       </c>
       <c r="C77">
-        <v>-0.06264440715016958</v>
+        <v>0.07511942139708064</v>
       </c>
       <c r="D77">
-        <v>-0.00468327942646467</v>
+        <v>0.009370090513473369</v>
       </c>
       <c r="E77">
-        <v>0.01534192702855781</v>
+        <v>0.04719710459939697</v>
       </c>
       <c r="F77">
-        <v>-0.1677199546422203</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1703271401800194</v>
+      </c>
+      <c r="G77">
+        <v>-0.207403454602571</v>
+      </c>
+      <c r="H77">
+        <v>0.002823260600408441</v>
+      </c>
+      <c r="I77">
+        <v>-0.2452134511228743</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.09058195770482735</v>
+        <v>0.06927692106542978</v>
       </c>
       <c r="C78">
-        <v>-0.06663448156831606</v>
+        <v>0.06880531654639355</v>
       </c>
       <c r="D78">
-        <v>-0.02832067250005328</v>
+        <v>-0.001693079012048975</v>
       </c>
       <c r="E78">
-        <v>-0.006127906058824337</v>
+        <v>-0.01135133560427442</v>
       </c>
       <c r="F78">
-        <v>-0.04731931303299138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.07364080306023701</v>
+      </c>
+      <c r="G78">
+        <v>-0.0149815147931384</v>
+      </c>
+      <c r="H78">
+        <v>0.02228176016073401</v>
+      </c>
+      <c r="I78">
+        <v>-0.02903039362527104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1097185728634471</v>
+        <v>0.1424054796437928</v>
       </c>
       <c r="C80">
-        <v>-0.0003870061341345264</v>
+        <v>-0.0478828402499963</v>
       </c>
       <c r="D80">
-        <v>0.3061614027101364</v>
+        <v>-0.9749876197735132</v>
       </c>
       <c r="E80">
-        <v>-0.9208882071408478</v>
+        <v>0.05177902403748477</v>
       </c>
       <c r="F80">
-        <v>-0.07912676553998377</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.04622993909566142</v>
+      </c>
+      <c r="G80">
+        <v>0.03631530839789608</v>
+      </c>
+      <c r="H80">
+        <v>0.02768305477884512</v>
+      </c>
+      <c r="I80">
+        <v>0.09450221486632285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1547090412926105</v>
+        <v>0.1828019978284985</v>
       </c>
       <c r="C81">
-        <v>0.02440112650533722</v>
+        <v>0.01557216440627186</v>
       </c>
       <c r="D81">
-        <v>-0.05019178848698505</v>
+        <v>0.007017822874523873</v>
       </c>
       <c r="E81">
-        <v>-0.01465294947880388</v>
+        <v>-0.08892159161157719</v>
       </c>
       <c r="F81">
-        <v>0.1789514891073715</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.158036843766662</v>
+      </c>
+      <c r="G81">
+        <v>-0.01589989314002406</v>
+      </c>
+      <c r="H81">
+        <v>-0.02333229356561143</v>
+      </c>
+      <c r="I81">
+        <v>-0.005443267409635271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.08940693193075565</v>
+        <v>0.0673618075990485</v>
       </c>
       <c r="C83">
-        <v>-0.08833147077394651</v>
+        <v>0.05604865357847</v>
       </c>
       <c r="D83">
-        <v>-0.005480470602910818</v>
+        <v>0.01053114096025039</v>
       </c>
       <c r="E83">
-        <v>0.02025204743071313</v>
+        <v>0.02162635380131438</v>
       </c>
       <c r="F83">
-        <v>-0.0188609719048031</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04926212891786087</v>
+      </c>
+      <c r="G83">
+        <v>-0.03430489855598159</v>
+      </c>
+      <c r="H83">
+        <v>0.06081353005272907</v>
+      </c>
+      <c r="I83">
+        <v>-0.04157540911125885</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2395595749432705</v>
+        <v>0.251817621698328</v>
       </c>
       <c r="C85">
-        <v>-0.0128106318127952</v>
+        <v>0.06076442035351583</v>
       </c>
       <c r="D85">
-        <v>-0.07792958626684444</v>
+        <v>0.01086932681834152</v>
       </c>
       <c r="E85">
-        <v>-0.0533386272798393</v>
+        <v>-0.1045021839239579</v>
       </c>
       <c r="F85">
-        <v>0.164334784994075</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1857167776748616</v>
+      </c>
+      <c r="G85">
+        <v>-0.02553079390624321</v>
+      </c>
+      <c r="H85">
+        <v>-0.01800633103354849</v>
+      </c>
+      <c r="I85">
+        <v>-0.07460511493658958</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04352718760267209</v>
+        <v>0.03025897678972802</v>
       </c>
       <c r="C86">
-        <v>-0.05085622950478259</v>
+        <v>0.0550695926312746</v>
       </c>
       <c r="D86">
-        <v>-0.03852725945960601</v>
+        <v>0.003365601478918768</v>
       </c>
       <c r="E86">
-        <v>0.006908097525175061</v>
+        <v>-0.01151535955378627</v>
       </c>
       <c r="F86">
-        <v>-0.07084724615822842</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.080010031042399</v>
+      </c>
+      <c r="G86">
+        <v>-0.05492565784267966</v>
+      </c>
+      <c r="H86">
+        <v>0.01487841428194817</v>
+      </c>
+      <c r="I86">
+        <v>-0.05546175188381593</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01838455126439067</v>
+        <v>0.02562370300876471</v>
       </c>
       <c r="C87">
-        <v>0.03628929772493963</v>
+        <v>-0.006181394822296172</v>
       </c>
       <c r="D87">
-        <v>0.01067886400398856</v>
+        <v>-0.003621688624353634</v>
       </c>
       <c r="E87">
-        <v>0.005970298285718492</v>
+        <v>0.00320853392297925</v>
       </c>
       <c r="F87">
-        <v>-0.09929971401274396</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.1070488816056032</v>
+      </c>
+      <c r="G87">
+        <v>-0.02754346498678873</v>
+      </c>
+      <c r="H87">
+        <v>-0.01277311790205477</v>
+      </c>
+      <c r="I87">
+        <v>-0.03330040748438327</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.02934599070749358</v>
+        <v>0.03477620530220832</v>
       </c>
       <c r="C88">
-        <v>-0.0119454242356707</v>
+        <v>0.006254301030966219</v>
       </c>
       <c r="D88">
-        <v>-0.01624030039236336</v>
+        <v>-0.004735125952009689</v>
       </c>
       <c r="E88">
-        <v>-0.0244231558179997</v>
+        <v>-0.01126588777993841</v>
       </c>
       <c r="F88">
-        <v>0.0331239622904031</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.02093518511410218</v>
+      </c>
+      <c r="G88">
+        <v>-0.02877147183247824</v>
+      </c>
+      <c r="H88">
+        <v>0.04903421976425282</v>
+      </c>
+      <c r="I88">
+        <v>0.002358313467370023</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.06047071622477192</v>
+        <v>0.09405080570962002</v>
       </c>
       <c r="C89">
-        <v>0.33146753279551</v>
+        <v>-0.3854988700743364</v>
       </c>
       <c r="D89">
-        <v>0.1707936348886795</v>
+        <v>0.04950006517072159</v>
       </c>
       <c r="E89">
-        <v>0.0912033397171578</v>
+        <v>0.04993919116801192</v>
       </c>
       <c r="F89">
-        <v>-0.03169934938753809</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.04634195176631383</v>
+      </c>
+      <c r="G89">
+        <v>-0.08263853289003752</v>
+      </c>
+      <c r="H89">
+        <v>0.04493198184328385</v>
+      </c>
+      <c r="I89">
+        <v>-0.07122619496512861</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.0469877459730249</v>
+        <v>0.0590951573175367</v>
       </c>
       <c r="C90">
-        <v>0.2935605142408652</v>
+        <v>-0.3376565573165859</v>
       </c>
       <c r="D90">
-        <v>0.1535305334275741</v>
+        <v>0.02428878687109292</v>
       </c>
       <c r="E90">
-        <v>0.03035587336393075</v>
+        <v>0.04801020566707412</v>
       </c>
       <c r="F90">
-        <v>-0.06454079647040555</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.03826745103559101</v>
+      </c>
+      <c r="G90">
+        <v>-0.05383696722418717</v>
+      </c>
+      <c r="H90">
+        <v>0.02053382846158932</v>
+      </c>
+      <c r="I90">
+        <v>-0.04868423094285158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2714714633200211</v>
+        <v>0.28688061675308</v>
       </c>
       <c r="C91">
-        <v>-0.01482358752189576</v>
+        <v>0.06487938482323018</v>
       </c>
       <c r="D91">
-        <v>-0.07290711372318161</v>
+        <v>0.01735632252284963</v>
       </c>
       <c r="E91">
-        <v>-0.03726967869322212</v>
+        <v>-0.09765154792605112</v>
       </c>
       <c r="F91">
-        <v>0.2755591629253261</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2706261249450487</v>
+      </c>
+      <c r="G91">
+        <v>-0.00749753695494982</v>
+      </c>
+      <c r="H91">
+        <v>-0.05102332199474384</v>
+      </c>
+      <c r="I91">
+        <v>-0.06789184467009339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.0803332861429874</v>
+        <v>0.1342456531373052</v>
       </c>
       <c r="C92">
-        <v>0.2864335177495465</v>
+        <v>-0.3760583538264539</v>
       </c>
       <c r="D92">
-        <v>0.2328321856629355</v>
+        <v>0.0116253874207652</v>
       </c>
       <c r="E92">
-        <v>0.02519224946842124</v>
+        <v>0.08196764124610477</v>
       </c>
       <c r="F92">
-        <v>0.1048270570016349</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1180424498923661</v>
+      </c>
+      <c r="G92">
+        <v>-0.3381318266539255</v>
+      </c>
+      <c r="H92">
+        <v>0.02336258305114002</v>
+      </c>
+      <c r="I92">
+        <v>0.06472871643561216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.0381190674587426</v>
+        <v>0.07602499831403113</v>
       </c>
       <c r="C93">
-        <v>0.3423677963127326</v>
+        <v>-0.4030959767966843</v>
       </c>
       <c r="D93">
-        <v>0.1888149046268084</v>
+        <v>0.03844459846341635</v>
       </c>
       <c r="E93">
-        <v>0.04503125778000624</v>
+        <v>0.08028025989667983</v>
       </c>
       <c r="F93">
-        <v>0.006230172762766259</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.0002439354630767543</v>
+      </c>
+      <c r="G93">
+        <v>-0.0254558216737114</v>
+      </c>
+      <c r="H93">
+        <v>0.05547853724236186</v>
+      </c>
+      <c r="I93">
+        <v>0.01062524049549587</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2823924905855336</v>
+        <v>0.3135507175802875</v>
       </c>
       <c r="C94">
-        <v>0.0993584732649242</v>
+        <v>-0.02772830806720956</v>
       </c>
       <c r="D94">
-        <v>-0.006206834099454642</v>
+        <v>0.04642273685727966</v>
       </c>
       <c r="E94">
-        <v>-0.0004165528432413143</v>
+        <v>-0.1090241899675736</v>
       </c>
       <c r="F94">
-        <v>0.3200583404766091</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2995358702815497</v>
+      </c>
+      <c r="G94">
+        <v>-0.09463816542950503</v>
+      </c>
+      <c r="H94">
+        <v>-0.2070173962987374</v>
+      </c>
+      <c r="I94">
+        <v>-0.01800180428201847</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1660262082946284</v>
+        <v>0.1322339853289814</v>
       </c>
       <c r="C95">
-        <v>-0.06331321248521776</v>
+        <v>0.06286361932625553</v>
       </c>
       <c r="D95">
-        <v>-0.02486609364846814</v>
+        <v>0.07999746666841552</v>
       </c>
       <c r="E95">
-        <v>0.07152132234854469</v>
+        <v>-0.02739605143830307</v>
       </c>
       <c r="F95">
-        <v>0.3915887014127997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1028665708638014</v>
+      </c>
+      <c r="G95">
+        <v>0.02333262704829096</v>
+      </c>
+      <c r="H95">
+        <v>0.8781107186100052</v>
+      </c>
+      <c r="I95">
+        <v>0.3477606230278911</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2095117539127369</v>
+        <v>0.2100625959723968</v>
       </c>
       <c r="C98">
-        <v>0.07742316189189331</v>
+        <v>-0.06131761822185039</v>
       </c>
       <c r="D98">
-        <v>0.02749863876693719</v>
+        <v>0.06316938480257515</v>
       </c>
       <c r="E98">
-        <v>0.0893065836067326</v>
+        <v>0.02617924415411573</v>
       </c>
       <c r="F98">
-        <v>-0.08365003341550617</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1638409031993433</v>
+      </c>
+      <c r="G98">
+        <v>0.3580109121872304</v>
+      </c>
+      <c r="H98">
+        <v>-0.03452481099143413</v>
+      </c>
+      <c r="I98">
+        <v>0.101971195407774</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.03098346434680822</v>
+        <v>0.01777266822829514</v>
       </c>
       <c r="C101">
-        <v>-0.01904871189147148</v>
+        <v>0.03404248595587421</v>
       </c>
       <c r="D101">
-        <v>-0.03727273744401005</v>
+        <v>-0.00443144818335774</v>
       </c>
       <c r="E101">
-        <v>-0.01720567520270688</v>
+        <v>-0.03593005521926221</v>
       </c>
       <c r="F101">
-        <v>-0.02077855767673932</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.06535899067264039</v>
+      </c>
+      <c r="G101">
+        <v>-0.1148091837362371</v>
+      </c>
+      <c r="H101">
+        <v>-0.01484302378382336</v>
+      </c>
+      <c r="I101">
+        <v>0.119559472481793</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.09900327441795394</v>
+        <v>0.1187101897215962</v>
       </c>
       <c r="C102">
-        <v>-0.0148493693430854</v>
+        <v>0.02873759128666807</v>
       </c>
       <c r="D102">
-        <v>-0.04963699019248718</v>
+        <v>-0.003796131320517485</v>
       </c>
       <c r="E102">
-        <v>-0.03924460068220432</v>
+        <v>-0.05118310803262142</v>
       </c>
       <c r="F102">
-        <v>0.09546551372935162</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1126171833508739</v>
+      </c>
+      <c r="G102">
+        <v>-0.00685469968577958</v>
+      </c>
+      <c r="H102">
+        <v>0.001134929520976248</v>
+      </c>
+      <c r="I102">
+        <v>-0.04636885032351388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02052708088067011</v>
+        <v>0.02879378445855865</v>
       </c>
       <c r="C103">
-        <v>-0.007172085764752675</v>
+        <v>0.01130612380558463</v>
       </c>
       <c r="D103">
-        <v>-0.01622419414002958</v>
+        <v>-0.008801281247295307</v>
       </c>
       <c r="E103">
-        <v>-0.006991570554101767</v>
+        <v>-0.01838606880383954</v>
       </c>
       <c r="F103">
-        <v>0.03350635844027782</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02593286764158942</v>
+      </c>
+      <c r="G103">
+        <v>-0.01825194805585301</v>
+      </c>
+      <c r="H103">
+        <v>0.008328619443882553</v>
+      </c>
+      <c r="I103">
+        <v>-0.01438893504195168</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
